--- a/pred_ohlcv/54_21/2020-01-16 ARN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ARN ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>37574.12391076001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>37613.60911076002</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>25850.02141076001</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>25859.89111076001</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>21951.51151076001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>21759.78651076002</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>16165.70311076002</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>16165.70311076002</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3270.129510760016</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3270.129510760016</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1004.095089239983</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-938.2585892399833</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-946.2585892399833</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1409.124089239983</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1409.124089239983</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>339.8207107600167</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-4397.403289239984</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>15316.95321076002</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>12755.70791076001</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>39999.89981076002</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>47387.39185052001</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>47377.39185052001</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>47397.20165052002</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>47389.20165052002</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>47392.87165052001</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>47392.87165052001</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>55916.99615052001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>55916.99615052001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>50544.42705052001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>52471.63795052001</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>69568.46095052002</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>68846.68975052002</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>64714.58175052002</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>53920.45455052001</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>52577.19965052001</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>53813.58495052001</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>48020.67725052001</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>48113.14105052</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>47497.24565052</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>47507.24565052</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>47503.55725052</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>47503.55725052</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>48919.54695052</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>31423.67855052</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>33520.60055052</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>37905.04855052</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>44745.95355052</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>47745.95355052</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>46139.54815052</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>47345.75285052</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>45901.96735052</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>44100.88055052001</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>45270.71835052001</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>41155.37805052001</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>38155.37805052001</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>38162.37135052001</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>37276.80295052002</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>37271.63455052002</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>40078.03755052001</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>41078.03755052001</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>41078.03755052001</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>40866.03755052001</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>41112.03755052001</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>48542.40505052001</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>53074.12175052001</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>53074.12175052001</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>51810.76315052001</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>50990.76315052001</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>50977.94785052001</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>52660.32285052001</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>52929.43055052001</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>51258.16955052001</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>51253.04745052001</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>51253.04745052001</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>49663.15275052001</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>49663.15275052001</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>45550.55845052002</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>47019.55985052002</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>43471.21655052002</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>43676.54085052002</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>40228.19755052002</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>40238.19755052002</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>40228.19755052002</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>40017.21475052002</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>30619.48865052002</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>30988.37475052002</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>30998.37475052002</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>32373.07245052002</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>30998.37475052002</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>32671.24875052002</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>32681.24875052002</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>32673.24875052002</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>34052.52575052002</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>23326.40313434002</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>23326.40313434002</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>26025.03613434002</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>15866.29453434002</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>21492.58113434002</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>24074.06813434002</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>29302.23083434003</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>29075.23083434003</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>29070.23083434003</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>28098.23083434003</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>28098.23083434003</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>27263.23083434003</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>27268.23083434003</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>27268.23083434003</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>22024.06813434002</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>22035.06813434002</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>19066.59853434002</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>13783.12623434002</v>
       </c>
       <c r="H213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>13783.12623434002</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 ARN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 ARN ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>37574.12391076001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>37613.60911076002</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>25850.02141076001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>25859.89111076001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>21951.51151076001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>21759.78651076002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>16165.70311076002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>16165.70311076002</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3270.129510760016</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>3270.129510760016</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-1004.095089239983</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-938.2585892399833</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-946.2585892399833</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1409.124089239983</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1409.124089239983</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>339.8207107600167</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-4397.403289239984</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-4397.403289239984</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-8454.369689239984</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-8454.369689239984</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>6355.630310760016</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>6350.630310760016</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>6350.630310760016</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>6345.880310760016</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>15316.95321076002</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>15308.66751076001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>16049.66751076001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>16029.66751076001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>15974.87841076001</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>16156.87841076001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>11278.10051076001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>12755.70791076001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>12747.70791076001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>40003.89981076002</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>39845.59421076002</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>40032.59421076002</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>39809.18141076002</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>39785.18141076002</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>39759.18141076002</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>39755.18141076002</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>39864.18141076002</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>39844.18141076002</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>39839.18141076002</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>39719.73701076002</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>39745.73701076002</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>39741.73701076002</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>39741.73701076002</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>47387.39185052001</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>47377.39185052001</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>47397.20165052002</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>47389.20165052002</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>47392.87165052001</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>47392.87165052001</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>55916.99615052001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>55916.99615052001</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>50544.42705052001</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>52471.63795052001</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>69568.46095052002</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>68846.68975052002</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>64714.58175052002</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>38155.37805052001</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>38162.37135052001</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>37276.80295052002</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>40078.03755052001</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>41078.03755052001</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>40866.03755052001</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>41112.03755052001</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>41112.03755052001</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>46736.18715052001</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>48788.40505052001</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>48542.40505052001</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>53074.12175052001</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>53074.12175052001</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>51810.76315052001</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>50990.76315052001</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>50977.94785052001</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>52660.32285052001</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>52929.43055052001</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>51258.16955052001</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>51253.04745052001</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>51253.04745052001</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>49663.15275052001</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>49663.15275052001</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>45550.55845052002</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>47019.55985052002</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>43471.21655052002</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>43676.54085052002</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>40228.19755052002</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>40238.19755052002</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>40228.19755052002</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>40017.21475052002</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>30619.48865052002</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>30988.37475052002</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>30998.37475052002</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>32373.07245052002</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>32671.24875052002</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>32681.24875052002</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>32673.24875052002</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>34052.52575052002</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>23326.40313434002</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>23326.40313434002</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>26025.03613434002</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>15866.29453434002</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>15872.29453434002</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>24074.06813434002</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>29302.23083434003</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>29075.23083434003</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>29070.23083434003</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>28098.23083434003</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>28098.23083434003</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>27263.23083434003</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>27268.23083434003</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>27268.23083434003</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>22024.06813434002</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>22035.06813434002</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>19066.59853434002</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>13783.12623434002</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>13783.12623434002</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
